--- a/test/1.xlsx
+++ b/test/1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lulu\Git-workspace\datacenter\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A3E9B1-28EF-4B2D-A647-E61AADCD4B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13917D3A-605B-4276-9277-AAEE0B87B070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,22 +16,11 @@
     <sheet name="订单列表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>数量</t>
   </si>
@@ -48,9 +37,6 @@
     <t>杨燕如</t>
   </si>
   <si>
-    <t>13929508711</t>
-  </si>
-  <si>
     <t>广东省广州市海珠区第三金碧花园75栋1903房</t>
   </si>
   <si>
@@ -60,9 +46,6 @@
     <t>朱穗华</t>
   </si>
   <si>
-    <t>13570076111</t>
-  </si>
-  <si>
     <t>广东省广州市海珠区海联路东翠东街15号2505室</t>
   </si>
   <si>
@@ -78,9 +61,6 @@
     <t>冯先生</t>
   </si>
   <si>
-    <t>13711760160</t>
-  </si>
-  <si>
     <t>广东省广州市越秀区广州市越秀区大塘街道德政中路252-2号右侧韫祥楼地下停车场（值班员代收）</t>
   </si>
   <si>
@@ -90,9 +70,6 @@
     <t>余颖文</t>
   </si>
   <si>
-    <t>13922116128</t>
-  </si>
-  <si>
     <t>广东省广州市海珠区滨江东路嘉裕街12号1403</t>
   </si>
   <si>
@@ -102,9 +79,6 @@
     <t>马玲</t>
   </si>
   <si>
-    <t>13686465455</t>
-  </si>
-  <si>
     <t>广东省深圳市南山区蛇口沿山路半山海景兰溪谷二期1栋8E</t>
   </si>
   <si>
@@ -118,9 +92,6 @@
   </si>
   <si>
     <t>刘素娟</t>
-  </si>
-  <si>
-    <t>13823613386</t>
   </si>
   <si>
     <t>广东省深圳市南山区沿山路11号兰溪谷1期2栋9B</t>
@@ -162,8 +133,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -203,11 +175,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -525,43 +500,44 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.4140625" customWidth="1"/>
     <col min="4" max="4" width="3.9140625" customWidth="1"/>
+    <col min="8" max="8" width="16.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -586,16 +562,16 @@
       <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2">
+        <v>13929508711</v>
+      </c>
+      <c r="I2" t="s">
         <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -613,24 +589,24 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2">
+        <v>13570076111</v>
+      </c>
+      <c r="I3" t="s">
         <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -642,18 +618,18 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="H4" s="2">
+        <v>13711760160</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -671,18 +647,18 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="H5" s="2">
+        <v>13922116128</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -700,24 +676,24 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="H6" s="2">
+        <v>13686465455</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -729,13 +705,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="H7" s="2">
+        <v>13823613386</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
